--- a/ID & tshirts/Assistant Pending List.xlsx
+++ b/ID & tshirts/Assistant Pending List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>Offline</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Pranav Madhav Katkade</t>
+  </si>
+  <si>
+    <t>Technical director</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -755,6 +761,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
